--- a/clustering_evaluation_metrics.xlsx
+++ b/clustering_evaluation_metrics.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04964089766144753</v>
+        <v>0.1069991365075111</v>
       </c>
       <c r="B2" t="n">
-        <v>1.474041506174798</v>
+        <v>0.6262511936546413</v>
       </c>
       <c r="C2" t="n">
-        <v>1.254863500595093</v>
+        <v>1.520685791969299</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
